--- a/Data/Experiment Result/ZFinalCompare.xlsx
+++ b/Data/Experiment Result/ZFinalCompare.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>1/ Param</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>Seconds</t>
+  </si>
+  <si>
+    <t>QR</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>HS</t>
   </si>
 </sst>
 </file>
@@ -227,11 +236,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="16466688"/>
-        <c:axId val="16468224"/>
+        <c:axId val="222168576"/>
+        <c:axId val="222170112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="16466688"/>
+        <c:axId val="222168576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -240,7 +249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="16468224"/>
+        <c:crossAx val="222170112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -248,7 +257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16468224"/>
+        <c:axId val="222170112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -259,7 +268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="16466688"/>
+        <c:crossAx val="222168576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -381,11 +390,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="260150400"/>
-        <c:axId val="260151936"/>
+        <c:axId val="222206592"/>
+        <c:axId val="222212480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="260150400"/>
+        <c:axId val="222206592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -394,7 +403,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260151936"/>
+        <c:crossAx val="222212480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -402,7 +411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="260151936"/>
+        <c:axId val="222212480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260150400"/>
+        <c:crossAx val="222206592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -535,11 +544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="260074880"/>
-        <c:axId val="260084864"/>
+        <c:axId val="222429184"/>
+        <c:axId val="222430720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="260074880"/>
+        <c:axId val="222429184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -548,7 +557,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260084864"/>
+        <c:crossAx val="222430720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -556,7 +565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="260084864"/>
+        <c:axId val="222430720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -567,7 +576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260074880"/>
+        <c:crossAx val="222429184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -689,11 +698,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="260171264"/>
-        <c:axId val="260172800"/>
+        <c:axId val="222442624"/>
+        <c:axId val="222444160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="260171264"/>
+        <c:axId val="222442624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -702,7 +711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260172800"/>
+        <c:crossAx val="222444160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -710,7 +719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="260172800"/>
+        <c:axId val="222444160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,7 +730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260171264"/>
+        <c:crossAx val="222442624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -913,11 +922,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="217677184"/>
-        <c:axId val="259491712"/>
+        <c:axId val="222483584"/>
+        <c:axId val="222485120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="217677184"/>
+        <c:axId val="222483584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,7 +935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259491712"/>
+        <c:crossAx val="222485120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -934,7 +943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259491712"/>
+        <c:axId val="222485120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,7 +954,311 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217677184"/>
+        <c:crossAx val="222483584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12773840769903763"/>
+          <c:y val="3.2882035578885971E-2"/>
+          <c:w val="0.73812357830271214"/>
+          <c:h val="0.66433909303003791"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$74:$A$81</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ECG_108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ECG_308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Power Italia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Power Dustch</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ERP</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Stock_20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TEK16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$74:$B$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$74:$A$81</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ECG_108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ECG_308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Power Italia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Power Dustch</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ERP</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Stock_20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TEK16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$74:$C$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>584.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$74:$A$81</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ECG_108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ECG_308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Power Italia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Power Dustch</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ERP</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Stock_20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TEK16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$74:$D$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>753.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>531.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="226940416"/>
+        <c:axId val="128888832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="226940416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="128888832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="128888832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="226940416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1114,6 +1427,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1409,10 +1752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,6 +2036,132 @@
       </c>
       <c r="C54">
         <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <v>56.2</v>
+      </c>
+      <c r="C74">
+        <v>584.20000000000005</v>
+      </c>
+      <c r="D74">
+        <v>753.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>3.1</v>
+      </c>
+      <c r="D75">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76">
+        <v>10.1</v>
+      </c>
+      <c r="C76">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="D76">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77">
+        <v>34.6</v>
+      </c>
+      <c r="C77">
+        <v>58.6</v>
+      </c>
+      <c r="D77">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78">
+        <v>21</v>
+      </c>
+      <c r="C78">
+        <v>143.6</v>
+      </c>
+      <c r="D78">
+        <v>531.79999999999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>36.5</v>
+      </c>
+      <c r="D79">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81">
+        <v>9</v>
+      </c>
+      <c r="C81">
+        <v>21</v>
+      </c>
+      <c r="D81">
+        <v>51.1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Experiment Result/ZFinalCompare.xlsx
+++ b/Data/Experiment Result/ZFinalCompare.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>1/ Param</t>
   </si>
@@ -85,6 +85,51 @@
   </si>
   <si>
     <t>HS</t>
+  </si>
+  <si>
+    <t>QR ®</t>
+  </si>
+  <si>
+    <t>ECG_108 (10)</t>
+  </si>
+  <si>
+    <t>ECG_308 (70)</t>
+  </si>
+  <si>
+    <t>ERP(60)</t>
+  </si>
+  <si>
+    <t>Memory (10)</t>
+  </si>
+  <si>
+    <t>Power Italia (10)</t>
+  </si>
+  <si>
+    <t>Power Dustch (25)</t>
+  </si>
+  <si>
+    <t>Stock_20 (10)</t>
+  </si>
+  <si>
+    <t>TEK16(10)</t>
+  </si>
+  <si>
+    <t>EP®</t>
+  </si>
+  <si>
+    <t>ECG_108 (60)</t>
+  </si>
+  <si>
+    <t>ECG_308 (60)</t>
+  </si>
+  <si>
+    <t>ERP(10)</t>
+  </si>
+  <si>
+    <t>Power Dustch (60)</t>
+  </si>
+  <si>
+    <t>Memory (50)</t>
   </si>
 </sst>
 </file>
@@ -236,11 +281,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222168576"/>
-        <c:axId val="222170112"/>
+        <c:axId val="215418368"/>
+        <c:axId val="215419904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222168576"/>
+        <c:axId val="215418368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -249,7 +294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222170112"/>
+        <c:crossAx val="215419904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -257,7 +302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222170112"/>
+        <c:axId val="215419904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -268,7 +313,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222168576"/>
+        <c:crossAx val="215418368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -390,11 +435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222206592"/>
-        <c:axId val="222212480"/>
+        <c:axId val="215480960"/>
+        <c:axId val="220590464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222206592"/>
+        <c:axId val="215480960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -403,7 +448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222212480"/>
+        <c:crossAx val="220590464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -411,7 +456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222212480"/>
+        <c:axId val="220590464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -422,7 +467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222206592"/>
+        <c:crossAx val="215480960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -544,11 +589,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222429184"/>
-        <c:axId val="222430720"/>
+        <c:axId val="215748608"/>
+        <c:axId val="215750144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222429184"/>
+        <c:axId val="215748608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,7 +602,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222430720"/>
+        <c:crossAx val="215750144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -565,7 +610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222430720"/>
+        <c:axId val="215750144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,7 +621,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222429184"/>
+        <c:crossAx val="215748608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -698,11 +743,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222442624"/>
-        <c:axId val="222444160"/>
+        <c:axId val="215757952"/>
+        <c:axId val="215759488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222442624"/>
+        <c:axId val="215757952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -711,7 +756,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222444160"/>
+        <c:crossAx val="215759488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -719,7 +764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222444160"/>
+        <c:axId val="215759488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,7 +775,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222442624"/>
+        <c:crossAx val="215757952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -922,11 +967,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="222483584"/>
-        <c:axId val="222485120"/>
+        <c:axId val="215802624"/>
+        <c:axId val="215804160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="222483584"/>
+        <c:axId val="215802624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -935,7 +980,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222485120"/>
+        <c:crossAx val="215804160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -943,7 +988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222485120"/>
+        <c:axId val="215804160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,7 +999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222483584"/>
+        <c:crossAx val="215802624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1226,11 +1271,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="226940416"/>
-        <c:axId val="128888832"/>
+        <c:axId val="215367680"/>
+        <c:axId val="215369216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="226940416"/>
+        <c:axId val="215367680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,7 +1284,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128888832"/>
+        <c:crossAx val="215369216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1247,7 +1292,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128888832"/>
+        <c:axId val="215369216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,7 +1303,499 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226940416"/>
+        <c:crossAx val="215367680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$101</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$102:$A$109</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ECG_108 (10)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ECG_308 (70)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory (10)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Power Italia (10)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Power Dustch (25)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ERP(60)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Stock_20 (10)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TEK16(10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$102:$B$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$101</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QR ®</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$102:$A$109</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ECG_108 (10)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ECG_308 (70)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory (10)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Power Italia (10)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Power Dustch (25)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ERP(60)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Stock_20 (10)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TEK16(10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$102:$C$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="226529280"/>
+        <c:axId val="226572544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="226529280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="226572544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="226572544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="226529280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$101</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$102:$E$109</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ECG_108 (60)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ECG_308 (60)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory (50)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Power Italia (10)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Power Dustch (60)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ERP(10)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Stock_20 (10)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TEK16(10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$102:$F$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>584.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$101</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EP®</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$102:$E$109</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ECG_108 (60)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ECG_308 (60)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory (50)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Power Italia (10)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Power Dustch (60)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ERP(10)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Stock_20 (10)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TEK16(10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$102:$G$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="19543936"/>
+        <c:axId val="19545472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="19543936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="19545472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="19545472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="19543936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1457,6 +1994,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1752,10 +2349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,6 +2759,186 @@
       </c>
       <c r="D81">
         <v>51.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102">
+        <v>56.2</v>
+      </c>
+      <c r="C102">
+        <v>17</v>
+      </c>
+      <c r="E102" t="s">
+        <v>33</v>
+      </c>
+      <c r="F102">
+        <v>584.20000000000005</v>
+      </c>
+      <c r="G102">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E103" t="s">
+        <v>34</v>
+      </c>
+      <c r="F103">
+        <v>3.1</v>
+      </c>
+      <c r="G103">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104">
+        <v>10.1</v>
+      </c>
+      <c r="C104">
+        <v>3.54</v>
+      </c>
+      <c r="E104" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="G104">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105">
+        <v>34.6</v>
+      </c>
+      <c r="C105">
+        <v>9</v>
+      </c>
+      <c r="E105" t="s">
+        <v>28</v>
+      </c>
+      <c r="F105">
+        <v>58.6</v>
+      </c>
+      <c r="G105">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106">
+        <v>21</v>
+      </c>
+      <c r="C106">
+        <v>15</v>
+      </c>
+      <c r="E106" t="s">
+        <v>36</v>
+      </c>
+      <c r="F106">
+        <v>143.6</v>
+      </c>
+      <c r="G106">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>26</v>
+      </c>
+      <c r="B107">
+        <v>6</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>35</v>
+      </c>
+      <c r="F107">
+        <v>36.5</v>
+      </c>
+      <c r="G107">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>30</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>30</v>
+      </c>
+      <c r="F108">
+        <v>5</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109">
+        <v>9</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109">
+        <v>21</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Experiment Result/ZFinalCompare.xlsx
+++ b/Data/Experiment Result/ZFinalCompare.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>1/ Param</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>Memory (50)</t>
+  </si>
+  <si>
+    <t>VL_QR</t>
+  </si>
+  <si>
+    <t>VL_EP</t>
+  </si>
+  <si>
+    <t>HOT SAX</t>
   </si>
 </sst>
 </file>
@@ -281,11 +290,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215418368"/>
-        <c:axId val="215419904"/>
+        <c:axId val="211486208"/>
+        <c:axId val="211487744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="215418368"/>
+        <c:axId val="211486208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -294,7 +303,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215419904"/>
+        <c:crossAx val="211487744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -302,7 +311,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215419904"/>
+        <c:axId val="211487744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -313,14 +322,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215418368"/>
+        <c:crossAx val="211486208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -435,11 +443,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215480960"/>
-        <c:axId val="220590464"/>
+        <c:axId val="211528320"/>
+        <c:axId val="211534208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="215480960"/>
+        <c:axId val="211528320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -448,7 +456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220590464"/>
+        <c:crossAx val="211534208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -456,7 +464,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220590464"/>
+        <c:axId val="211534208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,14 +475,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215480960"/>
+        <c:crossAx val="211528320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -589,11 +596,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215748608"/>
-        <c:axId val="215750144"/>
+        <c:axId val="211820544"/>
+        <c:axId val="211822080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="215748608"/>
+        <c:axId val="211820544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -602,7 +609,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215750144"/>
+        <c:crossAx val="211822080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -610,7 +617,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215750144"/>
+        <c:axId val="211822080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,7 +628,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215748608"/>
+        <c:crossAx val="211820544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -743,11 +750,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215757952"/>
-        <c:axId val="215759488"/>
+        <c:axId val="211833984"/>
+        <c:axId val="211835520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="215757952"/>
+        <c:axId val="211833984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -756,7 +763,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215759488"/>
+        <c:crossAx val="211835520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -764,7 +771,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215759488"/>
+        <c:axId val="211835520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +782,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215757952"/>
+        <c:crossAx val="211833984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -967,11 +974,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="215802624"/>
-        <c:axId val="215804160"/>
+        <c:axId val="211870848"/>
+        <c:axId val="211872384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="215802624"/>
+        <c:axId val="211870848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,7 +987,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215804160"/>
+        <c:crossAx val="211872384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -988,7 +995,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215804160"/>
+        <c:axId val="211872384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -999,7 +1006,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215802624"/>
+        <c:crossAx val="211870848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1271,11 +1278,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="215367680"/>
-        <c:axId val="215369216"/>
+        <c:axId val="211443712"/>
+        <c:axId val="211445248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="215367680"/>
+        <c:axId val="211443712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,7 +1291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215369216"/>
+        <c:crossAx val="211445248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1292,7 +1299,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215369216"/>
+        <c:axId val="211445248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215367680"/>
+        <c:crossAx val="211443712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1517,11 +1524,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="226529280"/>
-        <c:axId val="226572544"/>
+        <c:axId val="211470208"/>
+        <c:axId val="211471744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="226529280"/>
+        <c:axId val="211470208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1530,7 +1537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226572544"/>
+        <c:crossAx val="211471744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1538,7 +1545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="226572544"/>
+        <c:axId val="211471744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1549,7 +1556,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226529280"/>
+        <c:crossAx val="211470208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1763,11 +1770,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="19543936"/>
-        <c:axId val="19545472"/>
+        <c:axId val="211945344"/>
+        <c:axId val="211946880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="19543936"/>
+        <c:axId val="211945344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1776,7 +1783,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="19545472"/>
+        <c:crossAx val="211946880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1784,7 +1791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19545472"/>
+        <c:axId val="211946880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,7 +1802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="19543936"/>
+        <c:crossAx val="211945344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2349,10 +2356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2939,6 +2946,132 @@
       </c>
       <c r="G109">
         <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" t="s">
+        <v>38</v>
+      </c>
+      <c r="C135" t="s">
+        <v>39</v>
+      </c>
+      <c r="D135" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136">
+        <v>10</v>
+      </c>
+      <c r="C136">
+        <v>47</v>
+      </c>
+      <c r="D136">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137">
+        <v>0.31</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+      <c r="D137">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>6</v>
+      </c>
+      <c r="D138">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139">
+        <v>9</v>
+      </c>
+      <c r="C139">
+        <v>11</v>
+      </c>
+      <c r="D139">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>9</v>
+      </c>
+      <c r="D140">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141">
+        <v>7</v>
+      </c>
+      <c r="C141">
+        <v>14</v>
+      </c>
+      <c r="D141">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
